--- a/DungeonShooting_Godot/excel/excelFile/LiquidMaterial.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/LiquidMaterial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21915" windowHeight="13500"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Id</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>res://resource/sprite/brush/Brush3.png</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>血液</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/brush/Brush4.png</t>
   </si>
 </sst>
 </file>
@@ -1026,13 +1035,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="17" style="2" customWidth="1"/>
@@ -1140,6 +1149,26 @@
         <v>4</v>
       </c>
       <c r="F5" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" ht="35" customHeight="1" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2">
         <v>0.2</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/excelFile/LiquidMaterial.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/LiquidMaterial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="24750" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -95,10 +95,19 @@
     <t>0003</t>
   </si>
   <si>
-    <t>血液</t>
+    <t>血液(最小笔刷)</t>
   </si>
   <si>
     <t>res://resource/sprite/brush/Brush4.png</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>粘液(最小笔刷)</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/brush/Brush5.png</t>
   </si>
 </sst>
 </file>
@@ -1035,16 +1044,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="50.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.75" style="2" customWidth="1"/>
@@ -1166,12 +1175,33 @@
         <v>0.5</v>
       </c>
       <c r="E6" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2">
         <v>0.2</v>
       </c>
     </row>
+    <row r="7" ht="31" customHeight="1" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" ht="21" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/excelFile/LiquidMaterial.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/LiquidMaterial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12180"/>
+    <workbookView windowWidth="21915" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <t>Remark</t>
   </si>
   <si>
-    <t>BurshTexture</t>
+    <t>BrushTexture</t>
   </si>
   <si>
     <t>Ffm</t>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
